--- a/data/long_dif/IMC_R-Urba-long_dif.xlsx
+++ b/data/long_dif/IMC_R-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>7,94%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,45%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,04</t>
+          <t>5,0; 10,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,27</t>
+          <t>5,45; 10,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,16</t>
+          <t>6,79; 14,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,91</t>
+          <t>6,15; 11,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,25</t>
+          <t>4,92; 9,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,12</t>
+          <t>7,89; 14,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 10,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 8,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,24; 13,16</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,93%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>84,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,55; 88,95</t>
+          <t>82,43; 89,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,3; 88,79</t>
+          <t>82,81; 89,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,41; 86,19</t>
+          <t>76,06; 86,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,18; 86,3</t>
+          <t>78,24; 86,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,75; 86,81</t>
+          <t>80,26; 86,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,31; 87,0</t>
+          <t>75,55; 84,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>81,83; 86,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82,31; 86,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>77,63; 84,01</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,12</t>
+          <t>4,48; 9,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,42</t>
+          <t>4,37; 9,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,69</t>
+          <t>5,38; 12,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,01</t>
+          <t>6,35; 12,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,43</t>
+          <t>7,26; 11,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,61</t>
+          <t>6,2; 13,55</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 9,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 9,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 11,51</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 10,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,5; 80,48</t>
+          <t>8,8; 18,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,41; 84,16</t>
+          <t>7,49; 15,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,32; 90,26</t>
+          <t>10,14; 19,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,19; 89,58</t>
+          <t>4,53; 10,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,34; 83,7</t>
+          <t>5,14; 10,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,62; 85,91</t>
+          <t>8,57; 15,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 13,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 12,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 15,94</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>79,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82,77%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>77,61%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,77</t>
+          <t>69,16; 80,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,05</t>
+          <t>73,72; 83,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,94</t>
+          <t>68,83; 80,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,93</t>
+          <t>82,71; 90,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 12,84</t>
+          <t>83,06; 89,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,85</t>
+          <t>74,95; 84,11</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76,82; 84,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79,12; 85,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74,07; 81,07</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 24,63</t>
+          <t>8,11; 17,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 14,21</t>
+          <t>6,79; 14,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 20,21</t>
+          <t>6,72; 16,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,7</t>
+          <t>4,04; 9,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,28</t>
+          <t>3,85; 8,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,1</t>
+          <t>5,94; 12,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 12,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 10,73</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 12,7</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69,64; 89,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,17; 87,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,56; 87,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,69; 91,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>73,24; 87,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,49; 88,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,99</t>
+          <t>5,27; 23,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,76</t>
+          <t>3,85; 14,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 17,91</t>
+          <t>2,26; 16,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,99; 19,92</t>
+          <t>5,49; 18,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,97</t>
+          <t>0,93; 9,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 16,6</t>
+          <t>9,07; 26,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 17,18</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 9,23</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 17,69</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>75,17%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>81,77%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>83,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>80,83%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,04</t>
+          <t>70,08; 90,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,18</t>
+          <t>71,96; 87,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,24</t>
+          <t>75,04; 93,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,66</t>
+          <t>71,58; 88,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,9</t>
+          <t>77,36; 91,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,13</t>
+          <t>64,5; 84,93</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>75,0; 87,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>77,64; 87,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>72,59; 87,18</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>77,43; 84,11</t>
+          <t>2,41; 13,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>79,65; 85,17</t>
+          <t>6,51; 19,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>81,42; 86,44</t>
+          <t>2,36; 17,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>82,73; 86,96</t>
+          <t>3,01; 15,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>80,55; 84,66</t>
+          <t>5,76; 18,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>82,13; 85,81</t>
+          <t>3,89; 18,22</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 11,95</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 16,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 15,12</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,05; 9,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,09; 9,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 12,62</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 11,36</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 14,21</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 10,11</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 8,35</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 14,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 10,77</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 9,3</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 13,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>81,3%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>79,7%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>84,07%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>84,92%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>79,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>82,66%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>77,67; 84,0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>79,98; 85,13</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>75,5; 83,44</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>81,51; 86,52</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>82,82; 87,03</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>76,62; 82,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>80,51; 84,61</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>81,84; 85,39</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>77,23; 81,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 11,7</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 10,62</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 12,18</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 10,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 10,01</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 11,19</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 9,8</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 9,62</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 10,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
